--- a/biology/Zoologie/Buse_de_Ridgway/Buse_de_Ridgway.xlsx
+++ b/biology/Zoologie/Buse_de_Ridgway/Buse_de_Ridgway.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Buteo ridgwayi
 La Buse de Ridgway (Buteo ridgwayi) ou buse d'Hispaniola, est une espèce de rapaces diurnes, nommés buses, de la famille des Accipitridae.
-Elle est endémique de l'île d'Hispaniola[1].
-D'après le Congrès ornithologique international, c'est une espèce monotypique (non divisée en sous-espèces)[1].
-Classée depuis l'an 2000 comme en danger critique d'extinction en raison de sa population petite et fragmentée, sa population a connu une augmentation récente grâce à des actions de conservation[2]. Les principales menaces pesant sur sa population sont la perte de son habitat naturel à cause de l'agriculture humaine, et sa persécution par certains éleveurs de volaille en raison de méconnaissance de ces derniers sur les habitudes alimentaires de cette espèce[3].
+Elle est endémique de l'île d'Hispaniola.
+D'après le Congrès ornithologique international, c'est une espèce monotypique (non divisée en sous-espèces).
+Classée depuis l'an 2000 comme en danger critique d'extinction en raison de sa population petite et fragmentée, sa population a connu une augmentation récente grâce à des actions de conservation. Les principales menaces pesant sur sa population sont la perte de son habitat naturel à cause de l'agriculture humaine, et sa persécution par certains éleveurs de volaille en raison de méconnaissance de ces derniers sur les habitudes alimentaires de cette espèce.
 </t>
         </is>
       </c>
